--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/15.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/15.xlsx
@@ -479,13 +479,13 @@
         <v>-22.11041350959481</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.947177737451954</v>
+        <v>-8.990775105914901</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.904228976310661</v>
+        <v>-2.897119855867603</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.483268620799437</v>
+        <v>-5.527193296833428</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-22.12629366021866</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.222692158453237</v>
+        <v>-9.267939157074242</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.939512732469112</v>
+        <v>-2.923422292276631</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.412413077820015</v>
+        <v>-5.45802666092059</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-22.04175172237302</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.04656459167738</v>
+        <v>-10.09270186689162</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.809977488153075</v>
+        <v>-2.791334048906457</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.279945157667432</v>
+        <v>-5.326710863418077</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-21.83222019664219</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.8146769070986</v>
+        <v>-10.85857539852691</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.73325659350056</v>
+        <v>-2.717755306935956</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.503142736513177</v>
+        <v>-5.551322410970729</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-21.49119497056268</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.60892145899191</v>
+        <v>-11.65844964064216</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.580469419337617</v>
+        <v>-2.562100918450675</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.048735089482549</v>
+        <v>-5.094387949491647</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-21.01052861873254</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.29431660505911</v>
+        <v>-12.34527184771911</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.563397056432006</v>
+        <v>-2.544072817437618</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.151758420544091</v>
+        <v>-5.194923743013262</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-20.39092157186993</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.81808727254521</v>
+        <v>-12.87248579085258</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.440002102148738</v>
+        <v>-2.423270139117012</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.69558331262983</v>
+        <v>-4.736810974278425</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-19.66610171647749</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.78278051513495</v>
+        <v>-13.83918215577711</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.186325642287454</v>
+        <v>-2.172591816606483</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.58643278383836</v>
+        <v>-4.619307556273934</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-18.86688411197692</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.54387535623301</v>
+        <v>-14.60335368804297</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.170130463672238</v>
+        <v>-2.156619207139577</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.180440472716434</v>
+        <v>-4.212634445404238</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-18.02521446166444</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.21272183150827</v>
+        <v>-15.27028868710334</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.004539017330087</v>
+        <v>-1.987623762058577</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.963592660748926</v>
+        <v>-3.992592111543348</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-17.16931533120441</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.86278085220566</v>
+        <v>-15.92202352256447</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.029466761940733</v>
+        <v>-2.018783442821885</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.453097588344343</v>
+        <v>-3.481206762545528</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-16.32554658271834</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.8274740947954</v>
+        <v>-16.88608833461781</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.839170140136245</v>
+        <v>-1.826182575717253</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.813865902097067</v>
+        <v>-2.840521830682821</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-15.54117207882789</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.44476308147994</v>
+        <v>-17.50151821429882</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.58313706576345</v>
+        <v>-1.570673193458127</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.449886790794241</v>
+        <v>-2.478676764743196</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-14.84066982451377</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.34254156424562</v>
+        <v>-18.40061901965152</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.437720858100399</v>
+        <v>-1.426985169770183</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.883461400649804</v>
+        <v>-1.911910974724875</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-14.23973905181098</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.23662801760994</v>
+        <v>-19.29280708910379</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.278845763116053</v>
+        <v>-1.267638751883535</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.474130552303239</v>
+        <v>-1.501585111362338</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-13.73595202179367</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.03053216962936</v>
+        <v>-20.0881513944358</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.049809017202897</v>
+        <v>-1.041272835750092</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.9624571726429005</v>
+        <v>-0.9913126081060648</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-13.33172581580945</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.989857568054</v>
+        <v>-21.04552603973702</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9668561863977205</v>
+        <v>-0.9592626507495193</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.5955061085950023</v>
+        <v>-0.6249768822917277</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-13.03338767104091</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.82577491989253</v>
+        <v>-21.88146957618123</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8194630410055684</v>
+        <v>-0.8150902118564319</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.222820615902428</v>
+        <v>-0.2527365278957721</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-12.82865983583251</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.46590997503588</v>
+        <v>-22.52364703056789</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5714686405775933</v>
+        <v>-0.5693084106087084</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1495113846134196</v>
+        <v>0.1186790114211547</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-12.69925813327043</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.0897189285356</v>
+        <v>-23.14587181542377</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2779392108660948</v>
+        <v>-0.2778475647462027</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4906313351545923</v>
+        <v>0.4629411146443417</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-12.61632976000979</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.72964450683349</v>
+        <v>-23.78886099258662</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.05861695366149969</v>
+        <v>-0.0636967671640894</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5219088466434759</v>
+        <v>0.506656313832865</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-12.5686133542997</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.20510457683361</v>
+        <v>-24.2596340181694</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03898616402356815</v>
+        <v>0.03016195190824478</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7807305815215585</v>
+        <v>0.7628595881426025</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-12.54788749883228</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.57695216214432</v>
+        <v>-24.63347163351205</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01382275796177065</v>
+        <v>0.004684330578245853</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7345016601874238</v>
+        <v>0.7244860485135034</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-12.54067103682668</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.86067545702736</v>
+        <v>-24.91634392871038</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3033590353065426</v>
+        <v>0.2944300847684855</v>
       </c>
       <c r="G25" t="n">
-        <v>0.710163069204655</v>
+        <v>0.699073888697713</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-12.53344547601552</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.86658008560898</v>
+        <v>-24.9225627725602</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3102848635098157</v>
+        <v>0.3008714977666147</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5685698139713876</v>
+        <v>0.5595623096162801</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-12.50964002857733</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.82050827190895</v>
+        <v>-24.87689682024826</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1180113039762267</v>
+        <v>0.1075243694000041</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5517592971226113</v>
+        <v>0.5436682539664246</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-12.47189911739034</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.91058331546002</v>
+        <v>-24.96320128058092</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2645665419865083</v>
+        <v>0.258845205644674</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2514087776305736</v>
+        <v>0.2447055185756098</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-12.42092121153036</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.95461272991675</v>
+        <v>-25.0094432942179</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2355278142835599</v>
+        <v>0.2288900167428048</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1462252166001464</v>
+        <v>0.141367972245866</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-12.35526192265486</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.7446252846383</v>
+        <v>-24.80030684862416</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0880822996800409</v>
+        <v>0.08367019362237922</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.04179334450988169</v>
+        <v>-0.04454272810664416</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-12.27106714222493</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.2758553813903</v>
+        <v>-24.33073831490282</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09415712819860181</v>
+        <v>0.08919514542158763</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.5378999760914076</v>
+        <v>-0.5439355277014433</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-12.16359510198872</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.3236422867626</v>
+        <v>-24.37864305100069</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1456884321836356</v>
+        <v>0.1402158495957941</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.6552986556731653</v>
+        <v>-0.6650393289874095</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-12.04448424873874</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.9284511254851</v>
+        <v>-23.98381847420276</v>
       </c>
       <c r="F33" t="n">
-        <v>0.07775247273791903</v>
+        <v>0.07339273589162426</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.155398439621418</v>
+        <v>-1.168818050034187</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-11.91913968256614</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.34414164965887</v>
+        <v>-23.39758442985879</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.04822166520516919</v>
+        <v>-0.04606143523628439</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.232564472570551</v>
+        <v>-1.244583206579255</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-11.7907196969332</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.9851376134359</v>
+        <v>-23.0367212866323</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2450644384305206</v>
+        <v>-0.2418306396286143</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.300173124445224</v>
+        <v>-1.318855840600368</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-11.65715127096993</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.25196865429924</v>
+        <v>-22.30175868200632</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.3594780729643647</v>
+        <v>-0.3555634744146887</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.49462000625054</v>
+        <v>-1.509204831616223</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-11.51732178745285</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.45370476543351</v>
+        <v>-21.5034947931406</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2985203109332882</v>
+        <v>-0.2951948660114898</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.619965713657225</v>
+        <v>-1.639067383503304</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-11.3845878624829</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.07926490416015</v>
+        <v>-21.12834794751378</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.3766682665955511</v>
+        <v>-0.3743247443868821</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.876391557115272</v>
+        <v>-1.896959564879624</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-11.26232031568648</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.42478068510226</v>
+        <v>-20.4743350513582</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2248630151457373</v>
+        <v>-0.226787583663471</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.038840850775409</v>
+        <v>-2.063009241821236</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-11.1524624404231</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.08393567292077</v>
+        <v>-20.12884227166789</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.4884765328638917</v>
+        <v>-0.4844702881943235</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.257024077632774</v>
+        <v>-2.281048453347342</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-11.04861461009981</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.53957081306464</v>
+        <v>-19.58166256670079</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2087987595589394</v>
+        <v>-0.2088773133759898</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.11166023918109</v>
+        <v>-2.139913428713534</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-10.95230594300756</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.9699770856325</v>
+        <v>-19.01205574696581</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02597241499889244</v>
+        <v>0.02548799979374857</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.147546241270261</v>
+        <v>-2.183379874148065</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-10.8723405259146</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.07633577056481</v>
+        <v>-18.11739323227646</v>
       </c>
       <c r="F43" t="n">
-        <v>0.03758528761950346</v>
+        <v>0.04043940963899974</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.054682537213898</v>
+        <v>-2.095268676023248</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.80912516947729</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.73513726620659</v>
+        <v>-17.77694098918021</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0709051983516963</v>
+        <v>0.07256792081259551</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.245725420280364</v>
+        <v>-2.288641988995542</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-10.76148109154981</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.19252677493125</v>
+        <v>-17.23078248383477</v>
       </c>
       <c r="F45" t="n">
-        <v>0.04271747033346008</v>
+        <v>0.04487770030234488</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.302559106916298</v>
+        <v>-2.347740644023094</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-10.71990294509533</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.76913479333267</v>
+        <v>-16.80045158173008</v>
       </c>
       <c r="F46" t="n">
-        <v>0.08699563854417765</v>
+        <v>0.09351560535935723</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.222787705701661</v>
+        <v>-2.263190552271227</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.68817806898864</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.13757519655064</v>
+        <v>-16.16832901592586</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1004414335626303</v>
+        <v>0.1021565252348964</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.548537292706647</v>
+        <v>-2.593352245333875</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-10.67115002839556</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.47727799503103</v>
+        <v>-15.50855550651992</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09193143671550837</v>
+        <v>0.09938095703245051</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.470088214079024</v>
+        <v>-2.511289691121936</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-10.66851993256752</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.91949352476213</v>
+        <v>-14.94456528470404</v>
       </c>
       <c r="F49" t="n">
-        <v>0.215496590935719</v>
+        <v>0.2182066976239563</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.691374316709878</v>
+        <v>-2.739540898864588</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.67761468024755</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.24097183768684</v>
+        <v>-14.2678503354209</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3574171537400296</v>
+        <v>0.3573647845286627</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.652974592475096</v>
+        <v>-2.703550158352683</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.69048779786672</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.4436113177172</v>
+        <v>-13.46840813929943</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3507400792907493</v>
+        <v>0.3523111556317564</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.733164947380668</v>
+        <v>-2.788794142155162</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-10.71388723154279</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.8381970497101</v>
+        <v>-12.86273202523549</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4335358024618249</v>
+        <v>0.4347664789289472</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.725610688640992</v>
+        <v>-2.777194361837393</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-10.75218273152423</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.20659817601955</v>
+        <v>-12.23028215186023</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4867560135134414</v>
+        <v>0.4888900588766428</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.763198690099587</v>
+        <v>-2.817178254716024</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-10.80581211693951</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.82587400938216</v>
+        <v>-11.85004240042798</v>
       </c>
       <c r="F54" t="n">
-        <v>0.386743912105496</v>
+        <v>0.3894409264908916</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.878096739838576</v>
+        <v>-2.935283918651235</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-10.87102716544102</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.33649682146128</v>
+        <v>-11.35516644531358</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1391422807627726</v>
+        <v>0.1455051399438514</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.360037499745354</v>
+        <v>-3.414069433573157</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-10.94097540999777</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.92537232762539</v>
+        <v>-10.9438848438436</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2117652846258271</v>
+        <v>0.2122758844366544</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.441340700392473</v>
+        <v>-3.498069648605671</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-11.02247893134063</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.16027124185777</v>
+        <v>-10.17909797334417</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1666099321247139</v>
+        <v>0.1690974696646418</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.807309841727241</v>
+        <v>-3.867612988616232</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-11.11631569315676</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.86229042918008</v>
+        <v>-9.883552328995043</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.004506466016645847</v>
+        <v>-0.0002514675930848749</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.829029972141665</v>
+        <v>-3.888626134677202</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-11.22004545061251</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.288062026541976</v>
+        <v>-9.305618804652729</v>
       </c>
       <c r="F59" t="n">
-        <v>0.06890207601691221</v>
+        <v>0.07085282914032941</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.115149158444747</v>
+        <v>-4.175792705207622</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-11.32521959174712</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.952362289377277</v>
+        <v>-8.972013835942708</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.05868241517570832</v>
+        <v>-0.05483327814024085</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.034736234390865</v>
+        <v>-4.094476412257661</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-11.42478257116049</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.415276749901148</v>
+        <v>-8.433252481702839</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.08341377524372887</v>
+        <v>-0.07990503808214627</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.433632517372574</v>
+        <v>-4.490296004071565</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-11.52500514360743</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.930102191192463</v>
+        <v>-7.948169569114046</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.04401903599297512</v>
+        <v>-0.04137439081894646</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.411126848787648</v>
+        <v>-4.472713041355127</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-11.62472144865454</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.462039272297915</v>
+        <v>-7.482685833879317</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.06071172211617586</v>
+        <v>-0.05538315485959334</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.405510250868547</v>
+        <v>-4.465119505706926</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-11.72163052988799</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.129808995386274</v>
+        <v>-7.151594587314906</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2256747379219243</v>
+        <v>-0.2197570170374641</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.61798523368692</v>
+        <v>-4.673719166884148</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-11.80611163498061</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.749490690136974</v>
+        <v>-6.770726405346253</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.1764738638427178</v>
+        <v>-0.1715249733685453</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.884243396579103</v>
+        <v>-4.937502884539244</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.87659642500947</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.500095413304934</v>
+        <v>-6.521579882268206</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.2825477014663824</v>
+        <v>-0.2763157653137208</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.86147588193734</v>
+        <v>-4.914054570149712</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-11.94034691728895</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.349272084568249</v>
+        <v>-6.371227876433824</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.3534687059600125</v>
+        <v>-0.3499468764955881</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.956028493060287</v>
+        <v>-5.006027997612838</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-11.99764234725381</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.07470030937157</v>
+        <v>-6.097847500795742</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3145583819144026</v>
+        <v>-0.3102248296737913</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.964040982399423</v>
+        <v>-5.014105948466184</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-12.04783644679613</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.939155698051181</v>
+        <v>-5.963075335343014</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.5698582873280609</v>
+        <v>-0.5675671343307589</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.033600387397514</v>
+        <v>-5.078624816870209</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-12.08186404205209</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.741461925141117</v>
+        <v>-5.768589176629173</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5209716285170558</v>
+        <v>-0.5166380762764444</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.874908584652952</v>
+        <v>-4.918165553242015</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-12.10531847608634</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.627401782783999</v>
+        <v>-5.657121310234718</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.5943932628534556</v>
+        <v>-0.5883315266377364</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.831245754675796</v>
+        <v>-4.870247724841297</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-12.12571125843824</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.637744702028963</v>
+        <v>-5.670409997619069</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7069085134752494</v>
+        <v>-0.7026011458403215</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.706607031622563</v>
+        <v>-4.741000511187778</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-12.14516331018139</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.68490317686486</v>
+        <v>-5.717791041603276</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.7390763015573704</v>
+        <v>-0.7345463647741332</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.506936320983399</v>
+        <v>-4.542691400044153</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-12.1629805728917</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.92254156574503</v>
+        <v>-5.953609600388446</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.628498711756152</v>
+        <v>-0.622044206455181</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.369244571996966</v>
+        <v>-4.402014606009806</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-12.17161232817475</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.133170533862719</v>
+        <v>-6.165011014373797</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.9725382458310297</v>
+        <v>-0.9673144169971809</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.199149373477261</v>
+        <v>-4.231670653736108</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-12.17789681733801</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.624707951752483</v>
+        <v>-6.652345803051366</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.8952151052477955</v>
+        <v>-0.8915885373606374</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.028438836723994</v>
+        <v>-4.059205748402051</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-12.18561019218693</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.078670460486492</v>
+        <v>-7.103558928188614</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.9543530371838721</v>
+        <v>-0.9503337002114622</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.948091374184322</v>
+        <v>-3.976986086556011</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-12.19340617170487</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.660440029561432</v>
+        <v>-7.687436358021071</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.013543338331316</v>
+        <v>-1.008018386532107</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.576269973479302</v>
+        <v>-3.607691500299444</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-12.19519626573353</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.082103827184904</v>
+        <v>-8.109322724792852</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.9796604585769286</v>
+        <v>-0.9762302752323964</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.390987703663194</v>
+        <v>-3.425629936982401</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-12.18095905106941</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.552745929739272</v>
+        <v>-8.578995996936932</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.181923445178755</v>
+        <v>-1.175076170792532</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.020161317974145</v>
+        <v>-3.053599059431913</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-12.15494401988646</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.464716468785385</v>
+        <v>-9.48553323030373</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.106145196330844</v>
+        <v>-1.103421997339765</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.013693720370332</v>
+        <v>-3.048257399872489</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-12.11599683437102</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.25634256011035</v>
+        <v>-10.27337564610744</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.195343055591524</v>
+        <v>-1.191559380070265</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.820425145820772</v>
+        <v>-2.85264530311426</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-12.06002364157565</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.07641822551039</v>
+        <v>-11.09070192791071</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.305004184193821</v>
+        <v>-1.301992954540224</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.463136201270068</v>
+        <v>-2.498027188343268</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-11.97872713542573</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.2776501035416</v>
+        <v>-12.28972120676167</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.386621600109142</v>
+        <v>-1.383492539729969</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.325326621558059</v>
+        <v>-2.355399641185504</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-11.8641359460407</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.15517479381113</v>
+        <v>-13.16588429753566</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.471904860820145</v>
+        <v>-1.467453477853959</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.989901822753037</v>
+        <v>-2.020066488500374</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-11.72350106331145</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.32587542161543</v>
+        <v>-14.33428068003982</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.654948346850317</v>
+        <v>-1.647603564956109</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.741017145731825</v>
+        <v>-1.769335796778478</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-11.55745839590791</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.40157830000017</v>
+        <v>-15.405728560001</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.706034512538733</v>
+        <v>-1.697576884902978</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.330154497952777</v>
+        <v>-1.359245594867093</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-11.36579866388534</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.78386363402961</v>
+        <v>-16.78692723289457</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.690651056699704</v>
+        <v>-1.679182199410352</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.011108170002755</v>
+        <v>-1.040238543825595</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-11.14454993118537</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.44847138653803</v>
+        <v>-18.44716215625386</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.93166725971304</v>
+        <v>-1.920355510057788</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.8113981824550651</v>
+        <v>-0.8412224483285171</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-10.89325399603872</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.03384452224832</v>
+        <v>-20.02877780104857</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.140777520701088</v>
+        <v>-2.128588586755441</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.5122128779159411</v>
+        <v>-0.5424037282689613</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-10.62447117494158</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.8399800684758</v>
+        <v>-21.82945385699105</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.33140145007662</v>
+        <v>-2.316947547739354</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6554033940958991</v>
+        <v>-0.6846123217357899</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-10.34272155375196</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.53172816477512</v>
+        <v>-23.51557226306843</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.426150445742191</v>
+        <v>-2.412272604729962</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4688773555098278</v>
+        <v>-0.4959391454836756</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-10.05258589313297</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.60929333351726</v>
+        <v>-25.5931767087191</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.588848493156321</v>
+        <v>-2.573268652774667</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.4648842031431013</v>
+        <v>-0.4908200550725607</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.7526441344309</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.83404217080609</v>
+        <v>-27.81318613237922</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.463712262595104</v>
+        <v>-2.447412345557155</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.5889337725684558</v>
+        <v>-0.6126832099233469</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.451074440149352</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.11813841687646</v>
+        <v>-30.09639210185635</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.941280193352745</v>
+        <v>-2.923998353601667</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9452407944060307</v>
+        <v>-0.9673667862085478</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.16079999767485</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.30906983592511</v>
+        <v>-32.28899933566874</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.009373260432563</v>
+        <v>-2.990350144403535</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.190904764928179</v>
+        <v>-1.213816294901199</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.887774959388146</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.52952439788185</v>
+        <v>-34.50873382096919</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.36046954573913</v>
+        <v>-3.338736323021865</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.391596675188998</v>
+        <v>-1.41080308345781</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.636422898792297</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.04760628033955</v>
+        <v>-37.02644911894732</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.625876708946601</v>
+        <v>-3.602899717459372</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.804658829845455</v>
+        <v>-1.8238128689029</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-8.404085192441613</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.56595000885408</v>
+        <v>-39.54070804897523</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.561763701930669</v>
+        <v>-3.542648939781749</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.263635690567846</v>
+        <v>-2.281912545334896</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.198820426741044</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.1310070739079</v>
+        <v>-42.1051235911898</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.736297191113719</v>
+        <v>-3.716724198365339</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.603616610761788</v>
+        <v>-2.618816774361032</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.024592363559734</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.41908338004215</v>
+        <v>-44.39466623524233</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.990968665990974</v>
+        <v>-3.971317119425544</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.176653613841297</v>
+        <v>-3.18729765605162</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.883879283715253</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.76039298953086</v>
+        <v>-46.73761238258626</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.140220918386651</v>
+        <v>-4.119810018256401</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.496145080087938</v>
+        <v>-3.508163814096642</v>
       </c>
     </row>
   </sheetData>
